--- a/Hardware/ciam/impeller/impeller/bom_пульт_экраны.xlsx
+++ b/Hardware/ciam/impeller/impeller/bom_пульт_экраны.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yura\Documents\GitHub\Kitties-Hardware\Hardware\ciam\impeller\impeller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12277E4-3274-4B4B-8F0F-1D7E9985F138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876AB58F-F788-44FC-AFC4-5FB2144AD3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>CAN-USB преобразователь 2 канальный</t>
   </si>
   <si>
-    <t>micro sd</t>
-  </si>
-  <si>
     <t>Одноплатный компьютер Raspberry pi 4</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>СУММА</t>
+  </si>
+  <si>
+    <t>micro sd карта</t>
   </si>
 </sst>
 </file>
@@ -132,12 +132,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,11 +159,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -442,7 +450,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -481,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>170</v>
@@ -490,21 +498,21 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <f>C2*E2</f>
-        <v>1360</v>
+        <v>1700</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2">
         <f>SUM(F2:F17)</f>
-        <v>145947</v>
+        <v>146647</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -512,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>180</v>
@@ -521,11 +529,11 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F17" si="0">C3*E3</f>
-        <v>1440</v>
+        <v>1800</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>6</v>
@@ -536,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>7220</v>
@@ -560,7 +568,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>200</v>
@@ -584,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>64</v>
@@ -608,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>370</v>
@@ -632,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>370</v>
@@ -656,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>1400</v>
@@ -680,7 +688,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
         <v>24850</v>
@@ -704,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>700</v>
@@ -727,19 +735,19 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>27205</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>27205</v>
       </c>
@@ -848,7 +856,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>180</v>

--- a/Hardware/ciam/impeller/impeller/bom_пульт_экраны.xlsx
+++ b/Hardware/ciam/impeller/impeller/bom_пульт_экраны.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yura\Documents\GitHub\Kitties-Hardware\Hardware\ciam\impeller\impeller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876AB58F-F788-44FC-AFC4-5FB2144AD3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DB64F7-DDDD-4B74-9E95-F078FECA67CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Название</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>ethernet шнур m-m 15м</t>
-  </si>
-  <si>
-    <t>CAN-USB преобразователь 2 канальный</t>
   </si>
   <si>
     <t>Одноплатный компьютер Raspberry pi 4</t>
@@ -132,18 +129,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,13 +150,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -182,6 +171,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6A51FDF-7D13-446D-9717-6687BE8E94B0}" name="Таблица1" displayName="Таблица1" ref="A1:G16" totalsRowShown="0">
+  <autoFilter ref="A1:G16" xr:uid="{A6A51FDF-7D13-446D-9717-6687BE8E94B0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{533EADC6-CC63-442F-8B6F-054C9884C7A3}" name="N"/>
+    <tableColumn id="2" xr3:uid="{C60F9517-7F92-4DE0-B569-BC1B78BB02F1}" name="Название"/>
+    <tableColumn id="3" xr3:uid="{EF919D32-F9C0-449B-BEB6-712F26306288}" name="Цена"/>
+    <tableColumn id="4" xr3:uid="{EAA05519-2427-4229-BDE7-9DD43BD66D7A}" name="Кол-во"/>
+    <tableColumn id="5" xr3:uid="{7519F035-6D3E-40B7-B758-028920822897}" name="Кол-во с запасом"/>
+    <tableColumn id="6" xr3:uid="{CFA891BB-61F7-4ABD-BE7D-E906857452B7}" name="Сумма">
+      <calculatedColumnFormula>C2*E2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{CDD3ECB0-482F-4BE7-8BEA-50442D8E6C8B}" name="Ссылка" dataCellStyle="Гиперссылка"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,6 +466,7 @@
     <col min="2" max="2" width="41.109375" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -481,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -489,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>170</v>
@@ -508,11 +516,11 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2">
-        <f>SUM(F2:F17)</f>
-        <v>146647</v>
+        <f>SUM(F2:F16)</f>
+        <v>122370</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -520,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>180</v>
@@ -532,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F17" si="0">C3*E3</f>
+        <f t="shared" ref="F3:F16" si="0">C3*E3</f>
         <v>1800</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -544,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>7220</v>
@@ -568,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>200</v>
@@ -592,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>64</v>
@@ -601,11 +609,11 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>6</v>
@@ -616,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>370</v>
@@ -640,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>370</v>
@@ -664,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>1400</v>
@@ -673,11 +681,11 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>4200</v>
+        <v>5600</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>6</v>
@@ -688,7 +696,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>24850</v>
@@ -712,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>700</v>
@@ -721,11 +729,11 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>6</v>
@@ -735,21 +743,21 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5">
-        <v>27205</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>720</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>27205</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1440</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>6</v>
@@ -760,10 +768,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>720</v>
+        <v>830</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -773,7 +781,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>1440</v>
+        <v>1660</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>6</v>
@@ -784,10 +792,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>830</v>
+        <v>920</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -797,7 +805,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>1660</v>
+        <v>1840</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>6</v>
@@ -808,10 +816,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -821,7 +829,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>1840</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>6</v>
@@ -832,46 +840,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>180</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="G17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -887,13 +871,15 @@
     <hyperlink ref="G9" r:id="rId8" xr:uid="{AC9B5EDE-FC2F-4800-A745-0F8EC363BEAC}"/>
     <hyperlink ref="G10" r:id="rId9" xr:uid="{93C18855-C94F-4C7E-92E3-7CB0585A73A9}"/>
     <hyperlink ref="G11" r:id="rId10" xr:uid="{618A3C0E-70A2-4C60-BF26-53344DA6698C}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{B0DCAD25-AE8B-4495-ADA6-2ED8CF2B194E}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{50D62142-3BD6-4701-95E4-180FCE7D32AE}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{CE76F9DD-F18C-445F-A8EE-48510A996DF0}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{71AB28D8-5E02-4B2B-AF8B-811215EC2C8B}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{CCF0F505-B714-4857-A2CE-E3890174C260}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{95C4DF28-B0D2-46E4-9B37-C79CA799C4E7}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{50D62142-3BD6-4701-95E4-180FCE7D32AE}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{CE76F9DD-F18C-445F-A8EE-48510A996DF0}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{71AB28D8-5E02-4B2B-AF8B-811215EC2C8B}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{CCF0F505-B714-4857-A2CE-E3890174C260}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{95C4DF28-B0D2-46E4-9B37-C79CA799C4E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId16"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Hardware/ciam/impeller/impeller/bom_пульт_экраны.xlsx
+++ b/Hardware/ciam/impeller/impeller/bom_пульт_экраны.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yura\Documents\GitHub\Kitties-Hardware\Hardware\ciam\impeller\impeller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DB64F7-DDDD-4B74-9E95-F078FECA67CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B777A6D-20A0-4313-933E-F32C24EC3B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Название</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>micro sd карта</t>
+  </si>
+  <si>
+    <t>РУД (Thrustmaster)</t>
+  </si>
+  <si>
+    <t>Мышь компьютерная</t>
+  </si>
+  <si>
+    <t>Кабель usb-a usb-micro</t>
   </si>
 </sst>
 </file>
@@ -174,8 +183,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6A51FDF-7D13-446D-9717-6687BE8E94B0}" name="Таблица1" displayName="Таблица1" ref="A1:G16" totalsRowShown="0">
-  <autoFilter ref="A1:G16" xr:uid="{A6A51FDF-7D13-446D-9717-6687BE8E94B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6A51FDF-7D13-446D-9717-6687BE8E94B0}" name="Таблица1" displayName="Таблица1" ref="A1:G20" totalsRowShown="0">
+  <autoFilter ref="A1:G20" xr:uid="{A6A51FDF-7D13-446D-9717-6687BE8E94B0}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{533EADC6-CC63-442F-8B6F-054C9884C7A3}" name="N"/>
     <tableColumn id="2" xr3:uid="{C60F9517-7F92-4DE0-B569-BC1B78BB02F1}" name="Название"/>
@@ -454,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,8 +528,8 @@
         <v>22</v>
       </c>
       <c r="J2">
-        <f>SUM(F2:F16)</f>
-        <v>122370</v>
+        <f>SUM(F2:F20)</f>
+        <v>142549</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -540,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F16" si="0">C3*E3</f>
+        <f t="shared" ref="F3:F18" si="0">C3*E3</f>
         <v>1800</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -675,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1400</v>
+        <v>1290</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -684,8 +693,8 @@
         <v>4</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>5600</v>
+        <f>C9*E9</f>
+        <v>5160</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>6</v>
@@ -696,20 +705,20 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2">
-        <v>24850</v>
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>510</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>74550</v>
+        <f>C10*E10</f>
+        <v>2040</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>6</v>
@@ -720,20 +729,20 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>4200</v>
+        <v>5600</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>6</v>
@@ -744,20 +753,20 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>720</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>24850</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>1440</v>
+        <v>74550</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>6</v>
@@ -768,20 +777,20 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>1660</v>
+        <v>4200</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>6</v>
@@ -792,10 +801,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>920</v>
+        <v>720</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -805,7 +814,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>1840</v>
+        <v>1440</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>6</v>
@@ -816,10 +825,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -829,7 +838,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>1660</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>6</v>
@@ -840,22 +849,118 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>920</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1840</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>180</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>9499</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f>C19*E19</f>
+        <v>9499</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1740</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f>C20*E20</f>
+        <v>3480</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -868,18 +973,23 @@
     <hyperlink ref="G6" r:id="rId5" xr:uid="{C3E1D879-FAD3-49DD-BC06-12007887CFB1}"/>
     <hyperlink ref="G7" r:id="rId6" xr:uid="{C94F6B5E-00B4-4925-9B3C-1E4BA247B179}"/>
     <hyperlink ref="G8" r:id="rId7" xr:uid="{A09971A5-0872-44F8-8A34-80BAC0BD2D0C}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{AC9B5EDE-FC2F-4800-A745-0F8EC363BEAC}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{93C18855-C94F-4C7E-92E3-7CB0585A73A9}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{618A3C0E-70A2-4C60-BF26-53344DA6698C}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{50D62142-3BD6-4701-95E4-180FCE7D32AE}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{CE76F9DD-F18C-445F-A8EE-48510A996DF0}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{71AB28D8-5E02-4B2B-AF8B-811215EC2C8B}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{CCF0F505-B714-4857-A2CE-E3890174C260}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{95C4DF28-B0D2-46E4-9B37-C79CA799C4E7}"/>
+    <hyperlink ref="G11" r:id="rId8" xr:uid="{AC9B5EDE-FC2F-4800-A745-0F8EC363BEAC}"/>
+    <hyperlink ref="G12" r:id="rId9" xr:uid="{93C18855-C94F-4C7E-92E3-7CB0585A73A9}"/>
+    <hyperlink ref="G13" r:id="rId10" xr:uid="{618A3C0E-70A2-4C60-BF26-53344DA6698C}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{50D62142-3BD6-4701-95E4-180FCE7D32AE}"/>
+    <hyperlink ref="G15" r:id="rId12" xr:uid="{CE76F9DD-F18C-445F-A8EE-48510A996DF0}"/>
+    <hyperlink ref="G16" r:id="rId13" xr:uid="{71AB28D8-5E02-4B2B-AF8B-811215EC2C8B}"/>
+    <hyperlink ref="G17" r:id="rId14" xr:uid="{CCF0F505-B714-4857-A2CE-E3890174C260}"/>
+    <hyperlink ref="G18" r:id="rId15" xr:uid="{95C4DF28-B0D2-46E4-9B37-C79CA799C4E7}"/>
+    <hyperlink ref="G19" r:id="rId16" xr:uid="{982A9FBA-41C6-4F5F-A0A0-07B32CE36C89}"/>
+    <hyperlink ref="G20" r:id="rId17" xr:uid="{0A615153-9721-450F-9A7B-46B43173E38D}"/>
+    <hyperlink ref="G9" r:id="rId18" xr:uid="{A5C9EFA0-8A53-4B3E-999D-E3D4D701D8BB}"/>
+    <hyperlink ref="G10" r:id="rId19" xr:uid="{9975934B-3C16-4B0F-AFFA-45D622BF82C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Hardware/ciam/impeller/impeller/bom_пульт_экраны.xlsx
+++ b/Hardware/ciam/impeller/impeller/bom_пульт_экраны.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yura\Documents\GitHub\Kitties-Hardware\Hardware\ciam\impeller\impeller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B777A6D-20A0-4313-933E-F32C24EC3B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE006BB-B8AD-4949-B16B-79660DEDC561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>Название</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>Кабель usb-a usb-micro</t>
+  </si>
+  <si>
+    <t>Медный провод 22AWG красный</t>
+  </si>
+  <si>
+    <t>Медный провод 22AWG серый</t>
+  </si>
+  <si>
+    <t>Медный провод 22AWG синий</t>
+  </si>
+  <si>
+    <t>Медный провод 22AWG зеленый</t>
   </si>
 </sst>
 </file>
@@ -183,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6A51FDF-7D13-446D-9717-6687BE8E94B0}" name="Таблица1" displayName="Таблица1" ref="A1:G20" totalsRowShown="0">
-  <autoFilter ref="A1:G20" xr:uid="{A6A51FDF-7D13-446D-9717-6687BE8E94B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6A51FDF-7D13-446D-9717-6687BE8E94B0}" name="Таблица1" displayName="Таблица1" ref="A1:G24" totalsRowShown="0">
+  <autoFilter ref="A1:G24" xr:uid="{A6A51FDF-7D13-446D-9717-6687BE8E94B0}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{533EADC6-CC63-442F-8B6F-054C9884C7A3}" name="N"/>
     <tableColumn id="2" xr3:uid="{C60F9517-7F92-4DE0-B569-BC1B78BB02F1}" name="Название"/>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,8 +540,8 @@
         <v>22</v>
       </c>
       <c r="J2">
-        <f>SUM(F2:F20)</f>
-        <v>142549</v>
+        <f>SUM(F2:F24)</f>
+        <v>154279</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -961,6 +973,102 @@
         <v>3480</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>510</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F23" si="1">C21*E21</f>
+        <v>2550</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>510</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>4080</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>510</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>2550</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>510</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <f>C24*E24</f>
+        <v>2550</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -985,11 +1093,15 @@
     <hyperlink ref="G20" r:id="rId17" xr:uid="{0A615153-9721-450F-9A7B-46B43173E38D}"/>
     <hyperlink ref="G9" r:id="rId18" xr:uid="{A5C9EFA0-8A53-4B3E-999D-E3D4D701D8BB}"/>
     <hyperlink ref="G10" r:id="rId19" xr:uid="{9975934B-3C16-4B0F-AFFA-45D622BF82C1}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{2BF8ED1C-5761-4DDF-9C9E-F6784BBECD0B}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{6C508810-F553-42F8-B799-BD5D4034DFA8}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{EF824B85-F5BA-4318-95A0-16A6EB512DD1}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{4044B21E-1982-4470-BF8E-88A8B67A72B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>